--- a/models/synechocystis/fluxes.xlsx
+++ b/models/synechocystis/fluxes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwu\Desktop\Software\EMUlator2\Data\Synechocystis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwu\Desktop\Software\FreeFlux\models\synechocystis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C72867A-9454-4869-B51D-640A65DCD40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B7685B-687D-4CCA-893A-A2E010338FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="855" windowWidth="22635" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9585" yWindow="360" windowWidth="18045" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,200 +37,212 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
-    <t>v1_f</t>
-  </si>
-  <si>
-    <t>v1_b</t>
-  </si>
-  <si>
-    <t>v3_f</t>
-  </si>
-  <si>
-    <t>v3_b</t>
-  </si>
-  <si>
-    <t>v4_f</t>
-  </si>
-  <si>
-    <t>v4_b</t>
-  </si>
-  <si>
-    <t>v5_f</t>
-  </si>
-  <si>
-    <t>v5_b</t>
-  </si>
-  <si>
-    <t>v6_f</t>
-  </si>
-  <si>
-    <t>v6_b</t>
-  </si>
-  <si>
-    <t>v7_f</t>
-  </si>
-  <si>
-    <t>v7_b</t>
-  </si>
-  <si>
-    <t>v10_f</t>
-  </si>
-  <si>
-    <t>v10_b</t>
-  </si>
-  <si>
-    <t>v11_f</t>
-  </si>
-  <si>
-    <t>v11_b</t>
-  </si>
-  <si>
-    <t>v12</t>
-  </si>
-  <si>
-    <t>v13</t>
-  </si>
-  <si>
-    <t>v14_f</t>
-  </si>
-  <si>
-    <t>v14_b</t>
-  </si>
-  <si>
-    <t>v15_f</t>
-  </si>
-  <si>
-    <t>v15_b</t>
-  </si>
-  <si>
-    <t>v16_f</t>
-  </si>
-  <si>
-    <t>v16_b</t>
-  </si>
-  <si>
-    <t>v17_f</t>
-  </si>
-  <si>
-    <t>v17_b</t>
-  </si>
-  <si>
-    <t>v18_f</t>
-  </si>
-  <si>
-    <t>v18_b</t>
-  </si>
-  <si>
-    <t>v19</t>
-  </si>
-  <si>
-    <t>v20</t>
-  </si>
-  <si>
-    <t>v21</t>
-  </si>
-  <si>
-    <t>v22</t>
-  </si>
-  <si>
-    <t>v23_f</t>
-  </si>
-  <si>
-    <t>v23_b</t>
-  </si>
-  <si>
-    <t>v26_f</t>
-  </si>
-  <si>
-    <t>v26_b</t>
-  </si>
-  <si>
-    <t>v27_f</t>
-  </si>
-  <si>
-    <t>v27_b</t>
-  </si>
-  <si>
-    <t>v30</t>
-  </si>
-  <si>
-    <t>v31</t>
-  </si>
-  <si>
-    <t>v32</t>
-  </si>
-  <si>
-    <t>v33</t>
-  </si>
-  <si>
-    <t>v34</t>
-  </si>
-  <si>
-    <t>v37</t>
-  </si>
-  <si>
     <t>#flux_ID</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>v2</t>
-  </si>
-  <si>
-    <t>v8_f</t>
-  </si>
-  <si>
-    <t>v8_b</t>
-  </si>
-  <si>
-    <t>v9_f</t>
-  </si>
-  <si>
-    <t>v9_b</t>
-  </si>
-  <si>
-    <t>v24_f</t>
-  </si>
-  <si>
-    <t>v24_b</t>
-  </si>
-  <si>
-    <t>v25_f</t>
-  </si>
-  <si>
-    <t>v25_b</t>
-  </si>
-  <si>
-    <t>v28</t>
-  </si>
-  <si>
-    <t>v29_f</t>
-  </si>
-  <si>
-    <t>v29_b</t>
-  </si>
-  <si>
-    <t>v35</t>
-  </si>
-  <si>
-    <t>v36_f</t>
-  </si>
-  <si>
-    <t>v36_b</t>
-  </si>
-  <si>
-    <t>v38</t>
+    <t>g6pdh</t>
+  </si>
+  <si>
+    <t>prk</t>
+  </si>
+  <si>
+    <t>rbc1</t>
+  </si>
+  <si>
+    <t>sba</t>
+  </si>
+  <si>
+    <t>sbp</t>
+  </si>
+  <si>
+    <t>pdh</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>icl</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>ppc</t>
+  </si>
+  <si>
+    <t>rbc2</t>
+  </si>
+  <si>
+    <t>pgp</t>
+  </si>
+  <si>
+    <t>gld</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>co2in</t>
+  </si>
+  <si>
+    <t>biom</t>
+  </si>
+  <si>
+    <t>pgi_f</t>
+  </si>
+  <si>
+    <t>pgi_b</t>
+  </si>
+  <si>
+    <t>pfk_f</t>
+  </si>
+  <si>
+    <t>pfk_b</t>
+  </si>
+  <si>
+    <t>fba_f</t>
+  </si>
+  <si>
+    <t>fba_b</t>
+  </si>
+  <si>
+    <t>tpi_f</t>
+  </si>
+  <si>
+    <t>tpi_b</t>
+  </si>
+  <si>
+    <t>gapdh_f</t>
+  </si>
+  <si>
+    <t>gapdh_b</t>
+  </si>
+  <si>
+    <t>gpm_f</t>
+  </si>
+  <si>
+    <t>gpm_b</t>
+  </si>
+  <si>
+    <t>eno_f</t>
+  </si>
+  <si>
+    <t>eno_b</t>
+  </si>
+  <si>
+    <t>pk_f</t>
+  </si>
+  <si>
+    <t>pk_b</t>
+  </si>
+  <si>
+    <t>rpe_f</t>
+  </si>
+  <si>
+    <t>rpe_b</t>
+  </si>
+  <si>
+    <t>rpi_f</t>
+  </si>
+  <si>
+    <t>rpi_b</t>
+  </si>
+  <si>
+    <t>tkt1_f</t>
+  </si>
+  <si>
+    <t>tkt1_b</t>
+  </si>
+  <si>
+    <t>tkt2_f</t>
+  </si>
+  <si>
+    <t>tkt2_b</t>
+  </si>
+  <si>
+    <t>tkt3_f</t>
+  </si>
+  <si>
+    <t>tkt3_b</t>
+  </si>
+  <si>
+    <t>tal1_f</t>
+  </si>
+  <si>
+    <t>tal1_b</t>
+  </si>
+  <si>
+    <t>tal2_f</t>
+  </si>
+  <si>
+    <t>tal2_b</t>
+  </si>
+  <si>
+    <t>can_f</t>
+  </si>
+  <si>
+    <t>can_b</t>
+  </si>
+  <si>
+    <t>icd_f</t>
+  </si>
+  <si>
+    <t>icd_b</t>
+  </si>
+  <si>
+    <t>sdh_f</t>
+  </si>
+  <si>
+    <t>sdh_b</t>
+  </si>
+  <si>
+    <t>fum_f</t>
+  </si>
+  <si>
+    <t>fum_b</t>
+  </si>
+  <si>
+    <t>mdh_f</t>
+  </si>
+  <si>
+    <t>mdh_b</t>
+  </si>
+  <si>
+    <t>ms_f</t>
+  </si>
+  <si>
+    <t>ms_b</t>
+  </si>
+  <si>
+    <t>glyk_f</t>
+  </si>
+  <si>
+    <t>glyk_b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,8 +268,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,393 +552,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B61"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1.308351025942752</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>37.166874121552858</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>32.936325681668627</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>45.439874064737531</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>127.88179945170489</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>1.193413361379333</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>83.635338748346314</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>102.93426129319759</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>216.70057167765151</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>32.312406593978203</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>299.41353935507749</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>303.94556033689281</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>279.2450636549562</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>30.886696473400999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>6.186199791464464</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>23.60913471579039</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>11.883544350174301</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>20.4616472470356</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>98.369434535881027</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>26.696114770845931</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>63.281090192631609</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>147.42908839229941</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>147.02908839229869</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>27.483219657733649</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>105.3910069465791</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>161.5530461871916</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>121.98453419500041</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>49.055215207135667</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>10.715939910481641</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>2142.819976621091</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>2135.8050863219241</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>300.19590124833991</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>307.21079154750743</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>31.324384997485879</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>31.324384997485879</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>13.788671554123599</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B38">
         <v>4.061097314956184</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>4.319926017395189</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>0.25882870243816652</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>6.7846214009517567</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>3.7593742041512601</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>28.563647254346201</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>27.527797136190038</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>20.114817058436749</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>17.40318118568613</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>150.5906257841277</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>152.0431397932204</v>
@@ -932,7 +966,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B49">
         <v>1.035850118156447</v>
@@ -940,7 +974,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>78.504397190700189</v>
@@ -948,15 +982,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>77.668547072543461</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>38</v>
+      <c r="A52" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B52">
         <v>5.0000000000004032</v>
@@ -964,7 +998,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>10.516432925246789</v>
@@ -972,7 +1006,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B54">
         <v>0.39999999999911162</v>
@@ -980,7 +1014,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B55">
         <v>0.40000000000020958</v>
@@ -988,7 +1022,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <v>0.40000000000020958</v>
@@ -996,7 +1030,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B57">
         <v>0.29999999999993437</v>
@@ -1004,7 +1038,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58">
         <v>43.045047601674653</v>
@@ -1012,15 +1046,15 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>42.745047601673811</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>43</v>
+      <c r="A60" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B60">
         <v>100.0000000000007</v>
@@ -1028,7 +1062,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B61">
         <v>2.4535662585569891</v>
